--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2165367.063332098</v>
+        <v>-2168220.924356121</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>171.023239363443</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.169590399801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.6287092208523</v>
       </c>
       <c r="I2" t="n">
-        <v>47.2694844744969</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>160.4109796955706</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7579980667566</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1750011386098</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68.64875751590985</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2668371914149</v>
       </c>
       <c r="V4" t="n">
-        <v>193.9980797556257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +911,10 @@
         <v>13.169590399801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.07111569127406</v>
       </c>
       <c r="I5" t="n">
-        <v>116.500512193499</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>15.87281545754701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4109796955706</v>
       </c>
       <c r="T5" t="n">
         <v>213.7579980667566</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>100.3912753315026</v>
       </c>
       <c r="H7" t="n">
         <v>153.7198496000514</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.7094354839959</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.038371165853221</v>
       </c>
       <c r="R7" t="n">
-        <v>134.2696499661859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>207.1701032674745</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>322.2334518017736</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>282.7466646986306</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20.61353956391172</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>241.1160795447509</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.3305008047043</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>60.25690685266728</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E16" t="n">
-        <v>9.592641220496363</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>281.6778446725259</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>159.3471710336506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652581</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.380996701708</v>
+        <v>1717.550130615979</v>
       </c>
       <c r="C2" t="n">
-        <v>876.4184797612963</v>
+        <v>1717.550130615979</v>
       </c>
       <c r="D2" t="n">
-        <v>518.1527811545459</v>
+        <v>1717.550130615979</v>
       </c>
       <c r="E2" t="n">
-        <v>518.1527811545459</v>
+        <v>1331.761878017734</v>
       </c>
       <c r="F2" t="n">
-        <v>518.1527811545459</v>
+        <v>920.775973228127</v>
       </c>
       <c r="G2" t="n">
-        <v>100.8097605486863</v>
+        <v>503.4329526222673</v>
       </c>
       <c r="H2" t="n">
-        <v>100.8097605486863</v>
+        <v>182.5958726012044</v>
       </c>
       <c r="I2" t="n">
         <v>53.06280653404292</v>
@@ -4334,13 +4334,13 @@
         <v>592.1165982626338</v>
       </c>
       <c r="L2" t="n">
-        <v>691.9681947113942</v>
+        <v>1105.45279711634</v>
       </c>
       <c r="M2" t="n">
-        <v>1279.760170705545</v>
+        <v>1386.927262353482</v>
       </c>
       <c r="N2" t="n">
-        <v>1862.431237843059</v>
+        <v>1536.624874323132</v>
       </c>
       <c r="O2" t="n">
         <v>2041.637002584233</v>
@@ -4358,22 +4358,22 @@
         <v>2475.075887153542</v>
       </c>
       <c r="T2" t="n">
-        <v>2259.158717389142</v>
+        <v>2475.075887153542</v>
       </c>
       <c r="U2" t="n">
-        <v>2005.44659502691</v>
+        <v>2221.36376479131</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.44659502691</v>
+        <v>1890.300877447739</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.44659502691</v>
+        <v>1890.300877447739</v>
       </c>
       <c r="X2" t="n">
-        <v>1631.98083676583</v>
+        <v>1890.300877447739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1631.98083676583</v>
+        <v>1890.300877447739</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.06280653404292</v>
       </c>
       <c r="J3" t="n">
-        <v>159.0764351006237</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K3" t="n">
-        <v>466.8914550380419</v>
+        <v>99.05724182900832</v>
       </c>
       <c r="L3" t="n">
-        <v>575.059190513137</v>
+        <v>574.356919154528</v>
       </c>
       <c r="M3" t="n">
-        <v>1181.690717154862</v>
+        <v>1180.988445796253</v>
       </c>
       <c r="N3" t="n">
-        <v>1820.084988605807</v>
+        <v>1819.382717247199</v>
       </c>
       <c r="O3" t="n">
-        <v>2337.675348287934</v>
+        <v>2249.080033112135</v>
       </c>
       <c r="P3" t="n">
-        <v>2439.512345793311</v>
+        <v>2647.488860651802</v>
       </c>
       <c r="Q3" t="n">
         <v>2653.140326702146</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2047.544654655075</v>
+        <v>122.4049858430428</v>
       </c>
       <c r="C4" t="n">
-        <v>2047.544654655075</v>
+        <v>122.4049858430428</v>
       </c>
       <c r="D4" t="n">
-        <v>1897.428015242739</v>
+        <v>122.4049858430428</v>
       </c>
       <c r="E4" t="n">
-        <v>1897.428015242739</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="F4" t="n">
-        <v>1750.538067744829</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="G4" t="n">
-        <v>1750.538067744829</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="H4" t="n">
-        <v>1750.538067744829</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="I4" t="n">
-        <v>1750.538067744829</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J4" t="n">
-        <v>1750.538067744829</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K4" t="n">
-        <v>1838.548889332968</v>
+        <v>141.0736281221826</v>
       </c>
       <c r="L4" t="n">
-        <v>2006.698874503414</v>
+        <v>309.223613292628</v>
       </c>
       <c r="M4" t="n">
-        <v>2194.378580592542</v>
+        <v>496.9033193817558</v>
       </c>
       <c r="N4" t="n">
-        <v>2383.030299177492</v>
+        <v>685.5550379667063</v>
       </c>
       <c r="O4" t="n">
-        <v>2541.264399941667</v>
+        <v>843.7891387308806</v>
       </c>
       <c r="P4" t="n">
-        <v>2653.140326702146</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="Q4" t="n">
-        <v>2653.140326702146</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="R4" t="n">
-        <v>2653.140326702146</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="S4" t="n">
-        <v>2653.140326702146</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="T4" t="n">
-        <v>2653.140326702146</v>
+        <v>955.6650654913599</v>
       </c>
       <c r="U4" t="n">
-        <v>2653.140326702146</v>
+        <v>666.5066440858902</v>
       </c>
       <c r="V4" t="n">
-        <v>2457.182670383332</v>
+        <v>411.8221558800034</v>
       </c>
       <c r="W4" t="n">
-        <v>2457.182670383332</v>
+        <v>122.4049858430428</v>
       </c>
       <c r="X4" t="n">
-        <v>2229.193119485315</v>
+        <v>122.4049858430428</v>
       </c>
       <c r="Y4" t="n">
-        <v>2229.193119485315</v>
+        <v>122.4049858430428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.2164244398025</v>
+        <v>811.7220845385652</v>
       </c>
       <c r="C5" t="n">
-        <v>549.2539074993908</v>
+        <v>442.7595675981535</v>
       </c>
       <c r="D5" t="n">
-        <v>190.9882088926403</v>
+        <v>84.49386899140302</v>
       </c>
       <c r="E5" t="n">
-        <v>190.9882088926403</v>
+        <v>84.49386899140302</v>
       </c>
       <c r="F5" t="n">
-        <v>184.0427081434369</v>
+        <v>77.54836824219954</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7400915779813</v>
+        <v>64.24575167674399</v>
       </c>
       <c r="H5" t="n">
-        <v>170.7400915779813</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="I5" t="n">
         <v>53.06280653404292</v>
@@ -4568,22 +4568,22 @@
         <v>220.4707231032592</v>
       </c>
       <c r="K5" t="n">
-        <v>381.598194180834</v>
+        <v>271.2126398171807</v>
       </c>
       <c r="L5" t="n">
-        <v>894.9343930345402</v>
+        <v>784.548838670887</v>
       </c>
       <c r="M5" t="n">
-        <v>1482.726369028691</v>
+        <v>1372.340814665037</v>
       </c>
       <c r="N5" t="n">
-        <v>2065.397436166205</v>
+        <v>1955.011881802552</v>
       </c>
       <c r="O5" t="n">
-        <v>2570.409564427306</v>
+        <v>2460.024010063653</v>
       </c>
       <c r="P5" t="n">
-        <v>2645.170628032331</v>
+        <v>2534.785073668678</v>
       </c>
       <c r="Q5" t="n">
         <v>2653.140326702146</v>
@@ -4592,25 +4592,25 @@
         <v>2637.107179775331</v>
       </c>
       <c r="S5" t="n">
-        <v>2637.107179775331</v>
+        <v>2475.075887153542</v>
       </c>
       <c r="T5" t="n">
-        <v>2421.19001001093</v>
+        <v>2259.158717389142</v>
       </c>
       <c r="U5" t="n">
-        <v>2421.19001001093</v>
+        <v>2259.158717389142</v>
       </c>
       <c r="V5" t="n">
-        <v>2421.19001001093</v>
+        <v>1928.095830045571</v>
       </c>
       <c r="W5" t="n">
-        <v>2068.421354740816</v>
+        <v>1575.327174775457</v>
       </c>
       <c r="X5" t="n">
-        <v>1694.955596479736</v>
+        <v>1201.861416514377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1304.816264503924</v>
+        <v>811.7220845385652</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.06280653404292</v>
       </c>
       <c r="J6" t="n">
-        <v>159.0764351006237</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0708703955891</v>
+        <v>360.8778264714612</v>
       </c>
       <c r="L6" t="n">
-        <v>680.3705477211088</v>
+        <v>469.0455619465563</v>
       </c>
       <c r="M6" t="n">
-        <v>1287.002074362834</v>
+        <v>1075.677088588282</v>
       </c>
       <c r="N6" t="n">
         <v>1523.513158571518</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.3353818876302</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="C7" t="n">
-        <v>208.3353818876302</v>
+        <v>780.6295177494599</v>
       </c>
       <c r="D7" t="n">
-        <v>208.3353818876302</v>
+        <v>630.5128783371241</v>
       </c>
       <c r="E7" t="n">
-        <v>208.3353818876302</v>
+        <v>482.599784754731</v>
       </c>
       <c r="F7" t="n">
-        <v>208.3353818876302</v>
+        <v>335.7098372568206</v>
       </c>
       <c r="G7" t="n">
-        <v>208.3353818876302</v>
+        <v>234.3045086391412</v>
       </c>
       <c r="H7" t="n">
-        <v>53.06280653404292</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="I7" t="n">
-        <v>53.06280653404292</v>
+        <v>79.03193328555393</v>
       </c>
       <c r="J7" t="n">
         <v>53.06280653404292</v>
@@ -4744,31 +4744,31 @@
         <v>955.6650654913599</v>
       </c>
       <c r="Q7" t="n">
-        <v>955.6650654913599</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="R7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="S7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="T7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="U7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="V7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="W7" t="n">
-        <v>820.0391564346065</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="X7" t="n">
-        <v>610.7764258614</v>
+        <v>949.5657006773667</v>
       </c>
       <c r="Y7" t="n">
-        <v>389.9838467178699</v>
+        <v>949.5657006773667</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2399.448623447297</v>
+        <v>1712.106051438663</v>
       </c>
       <c r="C8" t="n">
-        <v>2030.486106506885</v>
+        <v>1386.617716285356</v>
       </c>
       <c r="D8" t="n">
-        <v>1672.220407900135</v>
+        <v>1386.617716285356</v>
       </c>
       <c r="E8" t="n">
-        <v>1286.432155301891</v>
+        <v>1000.829463687112</v>
       </c>
       <c r="F8" t="n">
-        <v>875.4462505122831</v>
+        <v>589.8435588975046</v>
       </c>
       <c r="G8" t="n">
-        <v>458.3584687487105</v>
+        <v>172.7557771339321</v>
       </c>
       <c r="H8" t="n">
         <v>172.7557771339321</v>
@@ -4805,7 +4805,7 @@
         <v>241.7027055477793</v>
       </c>
       <c r="K8" t="n">
-        <v>497.6412308572842</v>
+        <v>645.1698185678247</v>
       </c>
       <c r="L8" t="n">
         <v>1050.454489103483</v>
@@ -4832,22 +4832,22 @@
         <v>2653.140326702146</v>
       </c>
       <c r="T8" t="n">
-        <v>2653.140326702146</v>
+        <v>2438.340464969857</v>
       </c>
       <c r="U8" t="n">
-        <v>2399.448623447297</v>
+        <v>2438.340464969857</v>
       </c>
       <c r="V8" t="n">
-        <v>2399.448623447297</v>
+        <v>2438.340464969857</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.448623447297</v>
+        <v>2085.571809699743</v>
       </c>
       <c r="X8" t="n">
-        <v>2399.448623447297</v>
+        <v>1712.106051438663</v>
       </c>
       <c r="Y8" t="n">
-        <v>2399.448623447297</v>
+        <v>1712.106051438663</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>171.7220583909386</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1504626967484</v>
+        <v>239.3298780542956</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.512002562867</v>
+        <v>376.5594760699896</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.009338917472</v>
+        <v>774.638399822264</v>
       </c>
       <c r="N9" t="n">
-        <v>1841.661569776253</v>
+        <v>1431.290630681045</v>
       </c>
       <c r="O9" t="n">
-        <v>2391.097578528976</v>
+        <v>1980.726639433768</v>
       </c>
       <c r="P9" t="n">
-        <v>2499.787206056274</v>
+        <v>2404.694407914605</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.407863975072</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.7269475692602</v>
+        <v>520.0287224566787</v>
       </c>
       <c r="C10" t="n">
-        <v>532.7907646413533</v>
+        <v>351.0925395287718</v>
       </c>
       <c r="D10" t="n">
-        <v>532.7907646413533</v>
+        <v>200.975900116436</v>
       </c>
       <c r="E10" t="n">
-        <v>384.8776710589602</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="F10" t="n">
-        <v>384.8776710589602</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="G10" t="n">
-        <v>216.2708260543436</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="H10" t="n">
-        <v>195.4490689190793</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="I10" t="n">
-        <v>70.93739429340553</v>
+        <v>53.06280653404292</v>
       </c>
       <c r="J10" t="n">
         <v>53.06280653404292</v>
@@ -4984,28 +4984,28 @@
         <v>1052.997487993388</v>
       </c>
       <c r="R10" t="n">
-        <v>922.5195267127904</v>
+        <v>1052.997487993388</v>
       </c>
       <c r="S10" t="n">
-        <v>922.5195267127904</v>
+        <v>1052.997487993388</v>
       </c>
       <c r="T10" t="n">
-        <v>922.5195267127904</v>
+        <v>1052.997487993388</v>
       </c>
       <c r="U10" t="n">
-        <v>922.5195267127904</v>
+        <v>809.4458924936393</v>
       </c>
       <c r="V10" t="n">
-        <v>922.5195267127904</v>
+        <v>809.4458924936393</v>
       </c>
       <c r="W10" t="n">
-        <v>922.5195267127904</v>
+        <v>520.0287224566787</v>
       </c>
       <c r="X10" t="n">
-        <v>922.5195267127904</v>
+        <v>520.0287224566787</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.7269475692602</v>
+        <v>520.0287224566787</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,10 +5130,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>341.9229394630509</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169875</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3040775751642</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3274571940295</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
         <v>1896.176478190825</v>
@@ -6373,10 +6373,10 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6415,7 +6415,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7111,13 +7111,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319315</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717213</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.38532953243</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7982,16 +7982,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>140.1019064655513</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.70284437393059</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>19.00656204083232</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>305.0814669361333</v>
       </c>
       <c r="P3" t="n">
-        <v>18.89526355479599</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>111.5005599632861</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>111.5005599632862</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>19.00656204083232</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>73.39976096753153</v>
+        <v>286.8593425579886</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>175.1266371059723</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>268.6424390852581</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>220.7894822198683</v>
       </c>
       <c r="N9" t="n">
         <v>462.6217062688045</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.023956279617</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>211.7106023000376</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>195.3374013161005</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6287092208523</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>80.96825093199294</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7579980667566</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>109.1243923130006</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>77.78520513065932</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>58.13956356820231</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.09054721822694</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8807364711607</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E16" t="n">
-        <v>136.8413214260728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.845153664065094</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>66.36248435538656</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="10">
@@ -26329,22 +26329,22 @@
         <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675045</v>
       </c>
-      <c r="I2" t="n">
-        <v>60535.99497675046</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982124</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>53830.54890403902</v>
       </c>
       <c r="E3" t="n">
-        <v>774337.7035887977</v>
+        <v>774337.7035887978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>192972.2799035458</v>
+        <v>192972.2799035459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96029.79373198263</v>
+        <v>96029.79373198267</v>
       </c>
       <c r="C4" t="n">
         <v>194101.0169589092</v>
@@ -26427,19 +26427,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="K4" t="n">
         <v>14278.33979478852</v>
@@ -26451,13 +26451,13 @@
         <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
+        <v>14278.33979478853</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478852</v>
       </c>
-      <c r="O4" t="n">
-        <v>14278.33979478855</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-866456.0323497665</v>
+        <v>-866885.5912163553</v>
       </c>
       <c r="C6" t="n">
         <v>-218045.7407046382</v>
@@ -26528,28 +26528,28 @@
         <v>-262625.9824767627</v>
       </c>
       <c r="E6" t="n">
-        <v>-821211.7189676494</v>
+        <v>-821246.4568930852</v>
       </c>
       <c r="F6" t="n">
-        <v>-46874.01537885173</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="G6" t="n">
-        <v>-46874.01537885172</v>
+        <v>-46908.75330428743</v>
       </c>
       <c r="H6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="I6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="J6" t="n">
-        <v>-248836.6028124285</v>
+        <v>-248836.6028124286</v>
       </c>
       <c r="K6" t="n">
-        <v>-55864.32290888272</v>
+        <v>-55864.32290888271</v>
       </c>
       <c r="L6" t="n">
-        <v>-55864.32290888267</v>
+        <v>-55864.32290888265</v>
       </c>
       <c r="M6" t="n">
         <v>-182814.623642597</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>62.85575539871957</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2850816755365</v>
+        <v>663.2850816755366</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.4232064241117</v>
+        <v>509.4232064241119</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>159.3456403045824</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.1165764044124</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>223.8572031639947</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2668371914149</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6287092208523</v>
+        <v>306.5575935295782</v>
       </c>
       <c r="I5" t="n">
-        <v>11.73722321299084</v>
+        <v>128.2377354064898</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>160.4109796955706</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.1750011386098</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0341229987321</v>
+        <v>66.64284766722947</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>126.675194582023</v>
       </c>
       <c r="J7" t="n">
-        <v>25.7094354839959</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.038371165853221</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>134.2696499661859</v>
       </c>
       <c r="S7" t="n">
         <v>207.3412012951899</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>18.53955212156265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>43.03943996923391</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.29421937658492</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0985571053208</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>45.14457511334612</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>574.2721069128556</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4828684302377</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34702,16 +34702,16 @@
         <v>375.3998738983582</v>
       </c>
       <c r="L2" t="n">
-        <v>100.8601984330912</v>
+        <v>518.5214129835417</v>
       </c>
       <c r="M2" t="n">
-        <v>593.7292686809601</v>
+        <v>284.3176416536789</v>
       </c>
       <c r="N2" t="n">
-        <v>588.5566334722366</v>
+        <v>151.2097090602524</v>
       </c>
       <c r="O2" t="n">
-        <v>181.0159239809842</v>
+        <v>510.113260869799</v>
       </c>
       <c r="P2" t="n">
         <v>397.314934035144</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.0844732995765</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>310.9242625630487</v>
+        <v>46.4590255504701</v>
       </c>
       <c r="L3" t="n">
-        <v>109.2603388637324</v>
+        <v>480.1006841671916</v>
       </c>
       <c r="M3" t="n">
         <v>612.7591178199248</v>
@@ -34790,13 +34790,13 @@
         <v>644.8426984352981</v>
       </c>
       <c r="O3" t="n">
-        <v>522.8185451334613</v>
+        <v>434.0376927928651</v>
       </c>
       <c r="P3" t="n">
-        <v>102.8656540458358</v>
+        <v>402.4331591309769</v>
       </c>
       <c r="Q3" t="n">
-        <v>215.7858393018532</v>
+        <v>5.708551566004076</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>169.098905625471</v>
       </c>
       <c r="K5" t="n">
-        <v>162.7550212904795</v>
+        <v>51.25446132719344</v>
       </c>
       <c r="L5" t="n">
         <v>518.5214129835417</v>
@@ -34954,7 +34954,7 @@
         <v>75.51622586366136</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.05020067658063</v>
+        <v>119.5507606398669</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>107.0844732995765</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.4590255504701</v>
+        <v>310.9242625630487</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1006841671916</v>
+        <v>109.2603388637324</v>
       </c>
       <c r="M6" t="n">
         <v>612.7591178199248</v>
       </c>
       <c r="N6" t="n">
-        <v>238.9000850592761</v>
+        <v>452.3596666497331</v>
       </c>
       <c r="O6" t="n">
         <v>522.8185451334613</v>
@@ -35173,10 +35173,10 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>258.5237629388939</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>409.378455086524</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35252,13 +35252,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>402.0999229820954</v>
       </c>
       <c r="N9" t="n">
         <v>663.2850816755365</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9905635543413</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88662398579324</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
